--- a/regression.xlsx
+++ b/regression.xlsx
@@ -2,26 +2,35 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/Documents/GitHub/Stats_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F44D0F1-9D50-074C-A63F-3509478F24B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12759435-EC09-C249-8C0B-BB3BB86FFF8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="1560" windowWidth="28100" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="1560" windowWidth="28100" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="simple_regression" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="simple_regression" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>Applicants</t>
   </si>
@@ -702,7 +711,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Green Yellow">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -710,34 +719,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="455F51"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E2DFCC"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="99CB38"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="63A537"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="37A76F"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="44C1A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4EB3CF"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="51C3F9"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="EE7B08"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="977B2D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -998,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -1598,11 +1607,450 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6761038-F7BD-9743-9756-DDB509463822}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.2706921381526784</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.20196949132859177</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-0.12629201554223829</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.13650476238669962</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-0.1153163675353578</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.0435194759460202E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.21243407191108149</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-7.0830797068369103E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.19547101452456378</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.48783580283166267</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.18679597787293145</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.5378712695641243E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.21105253874252825</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.32583576715352131</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.60517802518149266</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.50222895028636394</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.14861269276027703</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.1470548439561139</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9.4329101035555696E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.20544904014528348</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.16932088837120945</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-3.1380369728309745E-3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-8.170115418092444E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.14922471926106376</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6.2389792339792971E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>9.9912665982158422E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.21242441434884618</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4.5692718499866801E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.13665437675691378</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-5.7863727463213013E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-6.8229441665429075E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.34526421540782182</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-2.8727171265667921E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-0.12559540610782643</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-3.2212627796974519E-3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-7.6583180464896955E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.4074881632805166E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-0.21003514893154229</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.1083057061589015</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.52612315005270049</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.35681961630626324</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.24300980489436186</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.10446628561020449</v>
+      </c>
+      <c r="I11" s="1">
+        <v>9.3729800555577714E-3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.14274790173955587</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.28359274960393993</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.5563360621137381E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.23991304278022435</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.55457799588944223</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.56861259109789286</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.60053442170790616</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.13246471339216959</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.13702766631414456</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.18236346914241922</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.37116968014829377</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="17" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-0.11899328051031512</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3.1322496045752733E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-0.26963203121349039</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-4.261166108393831E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-0.34203125124452644</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-0.38742538016610401</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-0.29446756285667153</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1.5504531980478161E-2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.1330207524557124</v>
+      </c>
+      <c r="K13" s="2">
+        <v>-0.22583990183766967</v>
+      </c>
+      <c r="L13" s="2">
+        <v>-0.22246178028244859</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:M13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="&quot;&lt;0.1&quot;"/>
+        <cfvo type="num" val="&quot;&gt;0.1&quot;"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="$A$1:$M$13&lt;0.1"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:M158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/regression.xlsx
+++ b/regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/Documents/GitHub/Stats_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12759435-EC09-C249-8C0B-BB3BB86FFF8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366DC132-8ACC-D348-8B69-2D27EB76E5CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="1560" windowWidth="28100" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="1560" windowWidth="28100" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1007,11 +1007,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -1038,7 +1041,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="1">
-        <v>0.47091867416699412</v>
+        <v>0.47091867416699401</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1610,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6761038-F7BD-9743-9756-DDB509463822}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1710,7 +1713,7 @@
         <v>0.20196949132859177</v>
       </c>
       <c r="C4" s="1">
-        <v>-0.12629201554223829</v>
+        <v>0.12629201554223801</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1733,7 +1736,7 @@
         <v>0.13650476238669962</v>
       </c>
       <c r="C5" s="1">
-        <v>-0.1153163675353578</v>
+        <v>0.115316367535358</v>
       </c>
       <c r="D5" s="1">
         <v>3.0435194759460202E-2</v>
@@ -1758,7 +1761,7 @@
         <v>0.21243407191108149</v>
       </c>
       <c r="C6" s="1">
-        <v>-7.0830797068369103E-2</v>
+        <v>7.0830797068369103E-2</v>
       </c>
       <c r="D6" s="1">
         <v>0.19547101452456378</v>
@@ -1842,10 +1845,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>-3.1380369728309745E-3</v>
+        <v>3.1380369728309702E-3</v>
       </c>
       <c r="C9" s="1">
-        <v>-8.170115418092444E-2</v>
+        <v>8.1701154180924399E-2</v>
       </c>
       <c r="D9" s="1">
         <v>0.14922471926106376</v>
@@ -1878,25 +1881,25 @@
         <v>0.13665437675691378</v>
       </c>
       <c r="C10" s="1">
-        <v>-5.7863727463213013E-2</v>
+        <v>5.7863727463212999E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>-6.8229441665429075E-2</v>
+        <v>6.8229441665429102E-2</v>
       </c>
       <c r="E10" s="1">
         <v>0.34526421540782182</v>
       </c>
       <c r="F10" s="1">
-        <v>-2.8727171265667921E-2</v>
+        <v>2.87271712656679E-2</v>
       </c>
       <c r="G10" s="1">
-        <v>-0.12559540610782643</v>
+        <v>0.12559540610782599</v>
       </c>
       <c r="H10" s="1">
-        <v>-3.2212627796974519E-3</v>
+        <v>3.2212627796974502E-3</v>
       </c>
       <c r="I10" s="1">
-        <v>-7.6583180464896955E-2</v>
+        <v>7.6583180464896997E-2</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1913,7 +1916,7 @@
         <v>4.4074881632805166E-2</v>
       </c>
       <c r="C11" s="1">
-        <v>-0.21003514893154229</v>
+        <v>0.21003514893154199</v>
       </c>
       <c r="D11" s="1">
         <v>0.1083057061589015</v>
@@ -1986,25 +1989,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>-0.11899328051031512</v>
+        <v>0.11899328051031501</v>
       </c>
       <c r="C13" s="2">
         <v>3.1322496045752733E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>-0.26963203121349039</v>
+        <v>0.26963203121349</v>
       </c>
       <c r="E13" s="2">
-        <v>-4.261166108393831E-2</v>
+        <v>4.2611661083938303E-2</v>
       </c>
       <c r="F13" s="2">
-        <v>-0.34203125124452644</v>
+        <v>0.34203125124452599</v>
       </c>
       <c r="G13" s="2">
-        <v>-0.38742538016610401</v>
+        <v>0.38742538016610401</v>
       </c>
       <c r="H13" s="2">
-        <v>-0.29446756285667153</v>
+        <v>0.29446756285667203</v>
       </c>
       <c r="I13" s="2">
         <v>1.5504531980478161E-2</v>
@@ -2013,10 +2016,10 @@
         <v>0.1330207524557124</v>
       </c>
       <c r="K13" s="2">
-        <v>-0.22583990183766967</v>
+        <v>0.22583990183767</v>
       </c>
       <c r="L13" s="2">
-        <v>-0.22246178028244859</v>
+        <v>0.22246178028244901</v>
       </c>
       <c r="M13" s="2">
         <v>1</v>
@@ -2024,7 +2027,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:M13">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="formula" val="&quot;&lt;0.1&quot;"/>
         <cfvo type="num" val="&quot;&gt;0.1&quot;"/>
@@ -2032,12 +2035,22 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="$A$1:$M$13&lt;0.1"/>
         <cfvo type="max"/>
         <color rgb="FFFF7128"/>
         <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
